--- a/supplementary_files/Cycles_raw_species_SI.xlsx
+++ b/supplementary_files/Cycles_raw_species_SI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiv\Documents\Honduras\Kcycle and strains 04-19-23\k-cycle strains paper\supp tables and code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC697CD0-1142-4D37-90A8-8A08444D71F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E431FB81-A75A-4D35-8E1B-E804BE6C5AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="25580" windowHeight="15260" xr2:uid="{A281207A-26D0-46D8-BD6B-8E32B07FE3EC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="644">
   <si>
     <t>k__Bacteria|p__Bacteroidetes|c__Bacteroidia|o__Bacteroidales|f__Prevotellaceae|g__Prevotella|s__Prevotella_copri_clade_A|t__SGB1626</t>
   </si>
@@ -1949,6 +1949,9 @@
   </si>
   <si>
     <t>Total cycles (length=5)</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
   </si>
 </sst>
 </file>
@@ -2272,7 +2275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2402,6 +2405,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2447,13 +2461,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2831,10 +2848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625364AD-2677-4211-9923-C3E111B1C8D9}">
-  <dimension ref="A1:D640"/>
+  <dimension ref="A1:E640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2843,9 +2860,10 @@
     <col min="2" max="2" width="19.54296875" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" customWidth="1"/>
     <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>639</v>
       </c>
@@ -2858,8 +2876,11 @@
       <c r="D1" s="2" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2872,8 +2893,11 @@
       <c r="D2" s="3">
         <v>510644</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2886,8 +2910,11 @@
       <c r="D3" s="3">
         <v>76164</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2900,8 +2927,11 @@
       <c r="D4" s="3">
         <v>5008764</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2914,8 +2944,11 @@
       <c r="D5" s="3">
         <v>237669</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2928,8 +2961,11 @@
       <c r="D6" s="3">
         <v>764542</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2942,8 +2978,11 @@
       <c r="D7" s="3">
         <v>1379045</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2956,8 +2995,11 @@
       <c r="D8" s="3">
         <v>96836</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2970,8 +3012,11 @@
       <c r="D9" s="3">
         <v>958303</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2984,8 +3029,11 @@
       <c r="D10" s="3">
         <v>40608</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2998,8 +3046,11 @@
       <c r="D11" s="3">
         <v>2869049</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3012,8 +3063,11 @@
       <c r="D12" s="3">
         <v>5783027</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3026,8 +3080,11 @@
       <c r="D13" s="3">
         <v>837458</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3040,8 +3097,11 @@
       <c r="D14" s="3">
         <v>1199745</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3054,8 +3114,11 @@
       <c r="D15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3068,8 +3131,11 @@
       <c r="D16" s="3">
         <v>10691052</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3082,8 +3148,11 @@
       <c r="D17" s="3">
         <v>9610</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3096,8 +3165,11 @@
       <c r="D18" s="3">
         <v>302626</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3110,8 +3182,11 @@
       <c r="D19" s="3">
         <v>45714</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3124,8 +3199,11 @@
       <c r="D20" s="3">
         <v>269333</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3138,8 +3216,11 @@
       <c r="D21" s="3">
         <v>41312</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3152,8 +3233,11 @@
       <c r="D22" s="3">
         <v>31561</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3166,8 +3250,11 @@
       <c r="D23" s="3">
         <v>20728</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3180,8 +3267,11 @@
       <c r="D24" s="3">
         <v>193694</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3194,8 +3284,11 @@
       <c r="D25" s="3">
         <v>244336</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3208,8 +3301,11 @@
       <c r="D26" s="3">
         <v>38440</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3222,8 +3318,11 @@
       <c r="D27" s="3">
         <v>113068</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3236,8 +3335,11 @@
       <c r="D28" s="3">
         <v>990747</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3250,8 +3352,11 @@
       <c r="D29" s="3">
         <v>3954</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3264,8 +3369,11 @@
       <c r="D30" s="3">
         <v>1260618</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3278,8 +3386,11 @@
       <c r="D31" s="3">
         <v>178459</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3292,8 +3403,11 @@
       <c r="D32" s="3">
         <v>909139</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3306,8 +3420,11 @@
       <c r="D33" s="3">
         <v>2882206</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3320,8 +3437,11 @@
       <c r="D34" s="3">
         <v>454696</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3334,8 +3454,11 @@
       <c r="D35" s="3">
         <v>3729</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3348,8 +3471,11 @@
       <c r="D36" s="3">
         <v>120363</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3362,8 +3488,11 @@
       <c r="D37" s="3">
         <v>28268</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3376,8 +3505,11 @@
       <c r="D38" s="3">
         <v>57874</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3390,8 +3522,11 @@
       <c r="D39" s="3">
         <v>2748278</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3404,8 +3539,11 @@
       <c r="D40" s="3">
         <v>392646</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3418,8 +3556,11 @@
       <c r="D41" s="3">
         <v>699742</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3432,8 +3573,11 @@
       <c r="D42" s="3">
         <v>11450</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3446,8 +3590,11 @@
       <c r="D43" s="3">
         <v>50401443</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3460,8 +3607,11 @@
       <c r="D44" s="3">
         <v>3003552</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3474,8 +3624,11 @@
       <c r="D45" s="3">
         <v>574</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3488,8 +3641,11 @@
       <c r="D46" s="3">
         <v>1185119</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3502,8 +3658,11 @@
       <c r="D47" s="3">
         <v>61397</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3516,8 +3675,11 @@
       <c r="D48" s="3">
         <v>345380</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3530,8 +3692,11 @@
       <c r="D49" s="3">
         <v>35376</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3544,8 +3709,11 @@
       <c r="D50" s="3">
         <v>532094</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3558,8 +3726,11 @@
       <c r="D51" s="3">
         <v>143997</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3572,8 +3743,11 @@
       <c r="D52" s="3">
         <v>266065</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3586,8 +3760,11 @@
       <c r="D53" s="3">
         <v>1273142</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3600,8 +3777,11 @@
       <c r="D54" s="3">
         <v>13134</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3614,8 +3794,11 @@
       <c r="D55" s="3">
         <v>5264687</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3628,8 +3811,11 @@
       <c r="D56" s="3">
         <v>634467</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3642,8 +3828,11 @@
       <c r="D57" s="3">
         <v>18162630</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3656,8 +3845,11 @@
       <c r="D58" s="3">
         <v>124789</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3670,8 +3862,11 @@
       <c r="D59" s="3">
         <v>5948311</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3684,8 +3879,11 @@
       <c r="D60" s="3">
         <v>1987581</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3698,8 +3896,11 @@
       <c r="D61" s="3">
         <v>884359</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3712,8 +3913,11 @@
       <c r="D62" s="3">
         <v>4678146</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3726,8 +3930,11 @@
       <c r="D63" s="3">
         <v>3290</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3740,8 +3947,11 @@
       <c r="D64" s="3">
         <v>185422</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3754,8 +3964,11 @@
       <c r="D65" s="3">
         <v>503</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3768,8 +3981,11 @@
       <c r="D66" s="3">
         <v>17847786</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3782,8 +3998,11 @@
       <c r="D67" s="3">
         <v>370681</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3796,8 +4015,11 @@
       <c r="D68" s="3">
         <v>5572</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3810,8 +4032,11 @@
       <c r="D69" s="3">
         <v>598809</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3824,8 +4049,11 @@
       <c r="D70" s="3">
         <v>742393</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3838,8 +4066,11 @@
       <c r="D71" s="3">
         <v>1223628</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3852,8 +4083,11 @@
       <c r="D72" s="3">
         <v>12439662</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3866,8 +4100,11 @@
       <c r="D73" s="3">
         <v>715872</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3880,8 +4117,11 @@
       <c r="D74" s="3">
         <v>327500</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3894,8 +4134,11 @@
       <c r="D75" s="3">
         <v>756492</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3908,8 +4151,11 @@
       <c r="D76" s="3">
         <v>94312</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3922,8 +4168,11 @@
       <c r="D77" s="3">
         <v>14650</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3936,8 +4185,11 @@
       <c r="D78" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3950,8 +4202,11 @@
       <c r="D79" s="3">
         <v>4009576</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3964,8 +4219,11 @@
       <c r="D80" s="3">
         <v>504922</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3978,8 +4236,11 @@
       <c r="D81" s="3">
         <v>223216</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3992,8 +4253,11 @@
       <c r="D82" s="3">
         <v>2893585</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4006,8 +4270,11 @@
       <c r="D83" s="3">
         <v>756297</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4020,8 +4287,11 @@
       <c r="D84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4034,8 +4304,11 @@
       <c r="D85" s="3">
         <v>1798150</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4048,8 +4321,11 @@
       <c r="D86" s="3">
         <v>105942</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4062,8 +4338,11 @@
       <c r="D87" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4076,8 +4355,11 @@
       <c r="D88" s="3">
         <v>1984792</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4090,8 +4372,11 @@
       <c r="D89" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4104,8 +4389,11 @@
       <c r="D90" s="3">
         <v>177188</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4118,8 +4406,11 @@
       <c r="D91" s="3">
         <v>115532</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4132,8 +4423,11 @@
       <c r="D92" s="3">
         <v>368288</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4146,8 +4440,11 @@
       <c r="D93" s="3">
         <v>27011011</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4160,8 +4457,11 @@
       <c r="D94" s="3">
         <v>11262</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4174,8 +4474,11 @@
       <c r="D95" s="3">
         <v>313344</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4188,8 +4491,11 @@
       <c r="D96" s="3">
         <v>66246</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4202,8 +4508,11 @@
       <c r="D97" s="3">
         <v>194</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4216,8 +4525,11 @@
       <c r="D98" s="3">
         <v>231477</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4230,8 +4542,11 @@
       <c r="D99" s="3">
         <v>533311</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4244,8 +4559,11 @@
       <c r="D100" s="3">
         <v>1902</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4258,8 +4576,11 @@
       <c r="D101" s="3">
         <v>31106</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4272,8 +4593,11 @@
       <c r="D102" s="3">
         <v>160</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4286,8 +4610,11 @@
       <c r="D103" s="3">
         <v>1902</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4300,8 +4627,11 @@
       <c r="D104" s="3">
         <v>34029464</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4314,8 +4644,11 @@
       <c r="D105" s="3">
         <v>157907</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4328,8 +4661,11 @@
       <c r="D106" s="3">
         <v>754</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4342,8 +4678,11 @@
       <c r="D107" s="3">
         <v>9926</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4356,8 +4695,11 @@
       <c r="D108" s="3">
         <v>7106</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4370,8 +4712,11 @@
       <c r="D109" s="3">
         <v>13965</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4384,8 +4729,11 @@
       <c r="D110" s="3">
         <v>530</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4398,8 +4746,11 @@
       <c r="D111" s="3">
         <v>149423</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4412,8 +4763,11 @@
       <c r="D112" s="3">
         <v>2076913</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -4426,8 +4780,11 @@
       <c r="D113" s="3">
         <v>86837</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4440,8 +4797,11 @@
       <c r="D114" s="3">
         <v>734773</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4454,8 +4814,11 @@
       <c r="D115" s="3">
         <v>248668</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4468,8 +4831,11 @@
       <c r="D116" s="3">
         <v>54898</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4482,8 +4848,11 @@
       <c r="D117" s="3">
         <v>1782</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4496,8 +4865,11 @@
       <c r="D118" s="3">
         <v>508</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4510,8 +4882,11 @@
       <c r="D119" s="3">
         <v>408</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4524,8 +4899,11 @@
       <c r="D120" s="3">
         <v>225923</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4538,8 +4916,11 @@
       <c r="D121" s="3">
         <v>74114</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4552,8 +4933,11 @@
       <c r="D122" s="3">
         <v>7816</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4566,8 +4950,11 @@
       <c r="D123" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4580,8 +4967,11 @@
       <c r="D124" s="3">
         <v>437328</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4594,8 +4984,11 @@
       <c r="D125" s="3">
         <v>608434</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4608,8 +5001,11 @@
       <c r="D126" s="3">
         <v>516</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -4622,8 +5018,11 @@
       <c r="D127" s="3">
         <v>7727369</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -4636,8 +5035,11 @@
       <c r="D128" s="3">
         <v>9590</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -4650,8 +5052,11 @@
       <c r="D129" s="3">
         <v>2479542</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -4664,8 +5069,11 @@
       <c r="D130" s="3">
         <v>69922</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -4678,8 +5086,11 @@
       <c r="D131" s="3">
         <v>6804</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -4692,8 +5103,11 @@
       <c r="D132" s="3">
         <v>47709</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -4706,8 +5120,11 @@
       <c r="D133" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -4720,8 +5137,11 @@
       <c r="D134" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E134">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -4734,8 +5154,11 @@
       <c r="D135" s="3">
         <v>14279</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E135">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -4748,8 +5171,11 @@
       <c r="D136" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E136">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -4762,8 +5188,11 @@
       <c r="D137" s="3">
         <v>2181</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E137">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -4776,8 +5205,11 @@
       <c r="D138" s="3">
         <v>2687355</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E138">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -4790,8 +5222,11 @@
       <c r="D139" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E139">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -4804,8 +5239,11 @@
       <c r="D140" s="3">
         <v>5052</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E140">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -4818,8 +5256,11 @@
       <c r="D141" s="3">
         <v>184692</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E141">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -4832,8 +5273,11 @@
       <c r="D142" s="3">
         <v>3430768</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E142">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -4846,8 +5290,11 @@
       <c r="D143" s="3">
         <v>63272</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E143">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -4860,8 +5307,11 @@
       <c r="D144" s="3">
         <v>2405</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E144">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -4874,8 +5324,11 @@
       <c r="D145" s="3">
         <v>3226</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E145">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -4888,8 +5341,11 @@
       <c r="D146" s="3">
         <v>2954</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E146">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -4902,8 +5358,11 @@
       <c r="D147" s="3">
         <v>118865</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E147">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -4916,8 +5375,11 @@
       <c r="D148" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E148">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4930,8 +5392,11 @@
       <c r="D149" s="3">
         <v>1356</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E149">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -4944,8 +5409,11 @@
       <c r="D150" s="3">
         <v>92908</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E150">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -4958,8 +5426,11 @@
       <c r="D151" s="3">
         <v>11877</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -4972,8 +5443,11 @@
       <c r="D152" s="3">
         <v>89084</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E152">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -4986,8 +5460,11 @@
       <c r="D153" s="3">
         <v>27638</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E153">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -5000,8 +5477,11 @@
       <c r="D154" s="3">
         <v>54900</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E154">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -5014,8 +5494,11 @@
       <c r="D155" s="3">
         <v>19410</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E155">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -5028,8 +5511,11 @@
       <c r="D156" s="3">
         <v>1641414</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E156">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -5042,8 +5528,11 @@
       <c r="D157" s="3">
         <v>16069</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E157">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -5056,8 +5545,11 @@
       <c r="D158" s="3">
         <v>203623</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E158">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -5070,8 +5562,11 @@
       <c r="D159" s="3">
         <v>11698021</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E159">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -5084,8 +5579,11 @@
       <c r="D160" s="3">
         <v>586473</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E160">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -5098,8 +5596,11 @@
       <c r="D161" s="3">
         <v>94367</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E161">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -5112,8 +5613,11 @@
       <c r="D162" s="3">
         <v>6694</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E162">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -5126,8 +5630,11 @@
       <c r="D163" s="3">
         <v>3953239</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E163">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -5140,8 +5647,11 @@
       <c r="D164" s="3">
         <v>562</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E164">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -5154,8 +5664,11 @@
       <c r="D165" s="3">
         <v>46056</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E165">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -5168,8 +5681,11 @@
       <c r="D166" s="3">
         <v>5176</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E166">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -5182,8 +5698,11 @@
       <c r="D167" s="3">
         <v>23622</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E167">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -5196,8 +5715,11 @@
       <c r="D168" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E168">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -5210,8 +5732,11 @@
       <c r="D169" s="3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E169">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -5224,8 +5749,11 @@
       <c r="D170" s="3">
         <v>276</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E170">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -5238,8 +5766,11 @@
       <c r="D171" s="3">
         <v>261194</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E171">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -5252,8 +5783,11 @@
       <c r="D172" s="3">
         <v>2439</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E172">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -5266,8 +5800,11 @@
       <c r="D173" s="3">
         <v>147999</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E173">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -5280,8 +5817,11 @@
       <c r="D174" s="3">
         <v>154</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E174">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -5294,8 +5834,11 @@
       <c r="D175" s="3">
         <v>418941</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E175">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -5308,8 +5851,11 @@
       <c r="D176" s="3">
         <v>92898</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E176">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -5322,8 +5868,11 @@
       <c r="D177" s="3">
         <v>728402</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E177">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -5336,8 +5885,11 @@
       <c r="D178" s="3">
         <v>172048</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E178">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -5350,8 +5902,11 @@
       <c r="D179" s="3">
         <v>455</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E179">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -5364,8 +5919,11 @@
       <c r="D180" s="3">
         <v>87657</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E180">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -5378,8 +5936,11 @@
       <c r="D181" s="3">
         <v>789</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E181">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -5392,8 +5953,11 @@
       <c r="D182" s="3">
         <v>35877</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E182">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -5406,8 +5970,11 @@
       <c r="D183" s="3">
         <v>56918</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E183">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -5420,8 +5987,11 @@
       <c r="D184" s="3">
         <v>364890</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E184">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -5434,8 +6004,11 @@
       <c r="D185" s="3">
         <v>936</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E185">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -5448,8 +6021,11 @@
       <c r="D186" s="3">
         <v>808</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E186">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -5462,8 +6038,11 @@
       <c r="D187" s="3">
         <v>43861</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E187">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -5476,8 +6055,11 @@
       <c r="D188" s="3">
         <v>31638</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E188">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -5490,8 +6072,11 @@
       <c r="D189" s="3">
         <v>25662</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E189">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -5504,8 +6089,11 @@
       <c r="D190" s="3">
         <v>122232</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E190">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -5518,8 +6106,11 @@
       <c r="D191" s="3">
         <v>1896</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E191">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -5532,8 +6123,11 @@
       <c r="D192" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E192">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -5546,8 +6140,11 @@
       <c r="D193" s="3">
         <v>50688</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E193">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -5560,8 +6157,11 @@
       <c r="D194" s="3">
         <v>3560</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E194">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -5574,8 +6174,11 @@
       <c r="D195" s="3">
         <v>260</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E195">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -5588,8 +6191,11 @@
       <c r="D196" s="3">
         <v>1507</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E196">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -5602,8 +6208,11 @@
       <c r="D197" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E197">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -5616,8 +6225,11 @@
       <c r="D198" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E198">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -5630,8 +6242,11 @@
       <c r="D199" s="3">
         <v>194894</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E199">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -5644,8 +6259,11 @@
       <c r="D200" s="3">
         <v>108178</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E200">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -5658,8 +6276,11 @@
       <c r="D201" s="3">
         <v>2454</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E201">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -5672,8 +6293,11 @@
       <c r="D202" s="3">
         <v>498</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E202">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -5686,8 +6310,11 @@
       <c r="D203" s="3">
         <v>94043</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E203">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -5700,8 +6327,11 @@
       <c r="D204" s="3">
         <v>672</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E204">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -5714,8 +6344,11 @@
       <c r="D205" s="3">
         <v>22310</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E205">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -5728,8 +6361,11 @@
       <c r="D206" s="3">
         <v>732</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E206">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -5742,8 +6378,11 @@
       <c r="D207" s="3">
         <v>7701</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E207">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -5756,8 +6395,11 @@
       <c r="D208" s="3">
         <v>4629</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E208">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -5770,8 +6412,11 @@
       <c r="D209" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E209">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -5784,8 +6429,11 @@
       <c r="D210" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E210">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -5798,8 +6446,11 @@
       <c r="D211" s="3">
         <v>6234</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E211">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -5812,8 +6463,11 @@
       <c r="D212" s="3">
         <v>1014763</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E212">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -5826,8 +6480,11 @@
       <c r="D213" s="3">
         <v>3479</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E213">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -5840,8 +6497,11 @@
       <c r="D214" s="3">
         <v>5453</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E214">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -5854,8 +6514,11 @@
       <c r="D215" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E215">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -5868,8 +6531,11 @@
       <c r="D216" s="3">
         <v>9416</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E216">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -5882,8 +6548,11 @@
       <c r="D217" s="3">
         <v>956</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E217">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -5896,8 +6565,11 @@
       <c r="D218" s="3">
         <v>506</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E218">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -5910,8 +6582,11 @@
       <c r="D219" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E219">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -5924,8 +6599,11 @@
       <c r="D220" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E220">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -5938,8 +6616,11 @@
       <c r="D221" s="3">
         <v>2712</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E221">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -5952,8 +6633,11 @@
       <c r="D222" s="3">
         <v>48831</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E222">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -5966,8 +6650,11 @@
       <c r="D223" s="3">
         <v>271890</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E223">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -5980,8 +6667,11 @@
       <c r="D224" s="3">
         <v>393320</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E224">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -5994,8 +6684,11 @@
       <c r="D225" s="3">
         <v>4103606</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E225">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -6008,8 +6701,11 @@
       <c r="D226" s="3">
         <v>9732</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E226">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -6022,8 +6718,11 @@
       <c r="D227" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E227">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -6036,8 +6735,11 @@
       <c r="D228" s="3">
         <v>116353</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E228">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -6050,8 +6752,11 @@
       <c r="D229" s="3">
         <v>3151940</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E229">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -6064,8 +6769,11 @@
       <c r="D230" s="3">
         <v>542052</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E230">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -6078,8 +6786,11 @@
       <c r="D231" s="3">
         <v>6412</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E231">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -6092,8 +6803,11 @@
       <c r="D232" s="3">
         <v>4648</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E232">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -6106,8 +6820,11 @@
       <c r="D233" s="3">
         <v>71910</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E233">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -6120,8 +6837,11 @@
       <c r="D234" s="3">
         <v>26684</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E234">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -6134,8 +6854,11 @@
       <c r="D235" s="3">
         <v>962634</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E235">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -6148,8 +6871,11 @@
       <c r="D236" s="3">
         <v>140</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E236">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -6162,8 +6888,11 @@
       <c r="D237" s="3">
         <v>93534</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E237">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -6176,8 +6905,11 @@
       <c r="D238" s="3">
         <v>140</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E238">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -6190,8 +6922,11 @@
       <c r="D239" s="3">
         <v>14708</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E239">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -6204,8 +6939,11 @@
       <c r="D240" s="3">
         <v>1715960</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E240">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -6218,8 +6956,11 @@
       <c r="D241" s="3">
         <v>5760</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E241">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -6232,8 +6973,11 @@
       <c r="D242" s="3">
         <v>75609</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E242">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -6246,8 +6990,11 @@
       <c r="D243" s="3">
         <v>7815</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E243">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -6260,8 +7007,11 @@
       <c r="D244" s="3">
         <v>43731</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E244">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -6274,8 +7024,11 @@
       <c r="D245" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E245">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -6288,8 +7041,11 @@
       <c r="D246" s="3">
         <v>15171</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E246">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -6302,8 +7058,11 @@
       <c r="D247" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E247">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -6316,8 +7075,11 @@
       <c r="D248" s="3">
         <v>3253</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E248">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -6330,8 +7092,11 @@
       <c r="D249" s="3">
         <v>7230</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E249">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -6344,8 +7109,11 @@
       <c r="D250" s="3">
         <v>508</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E250">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -6358,8 +7126,11 @@
       <c r="D251" s="3">
         <v>678</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E251">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -6372,8 +7143,11 @@
       <c r="D252" s="3">
         <v>39320</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E252">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -6386,8 +7160,11 @@
       <c r="D253" s="3">
         <v>1507</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E253">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -6400,8 +7177,11 @@
       <c r="D254" s="3">
         <v>18414</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E254">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -6414,8 +7194,11 @@
       <c r="D255" s="3">
         <v>69612</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E255">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -6428,8 +7211,11 @@
       <c r="D256" s="3">
         <v>4384</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E256">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -6442,8 +7228,11 @@
       <c r="D257" s="3">
         <v>39368</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E257">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -6456,8 +7245,11 @@
       <c r="D258" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E258">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -6470,8 +7262,11 @@
       <c r="D259" s="3">
         <v>1790</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E259">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -6484,8 +7279,11 @@
       <c r="D260" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E260">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -6498,8 +7296,11 @@
       <c r="D261" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E261">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -6512,8 +7313,11 @@
       <c r="D262" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E262">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -6526,8 +7330,11 @@
       <c r="D263" s="3">
         <v>10209</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E263">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -6540,8 +7347,11 @@
       <c r="D264" s="3">
         <v>26802</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E264">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -6554,8 +7364,11 @@
       <c r="D265" s="3">
         <v>1272</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E265">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -6568,8 +7381,11 @@
       <c r="D266" s="3">
         <v>264</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E266">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -6582,8 +7398,11 @@
       <c r="D267" s="3">
         <v>69088</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E267">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -6596,8 +7415,11 @@
       <c r="D268" s="3">
         <v>12480</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E268">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -6610,8 +7432,11 @@
       <c r="D269" s="3">
         <v>2496</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E269">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -6624,8 +7449,11 @@
       <c r="D270" s="3">
         <v>133</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E270">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -6638,8 +7466,11 @@
       <c r="D271" s="3">
         <v>398328</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E271">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -6652,8 +7483,11 @@
       <c r="D272" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E272">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -6666,8 +7500,11 @@
       <c r="D273" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E273">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -6680,8 +7517,11 @@
       <c r="D274" s="3">
         <v>15474</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E274">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -6694,8 +7534,11 @@
       <c r="D275" s="3">
         <v>4664</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E275">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -6708,8 +7551,11 @@
       <c r="D276" s="3">
         <v>1059</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E276">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -6722,8 +7568,11 @@
       <c r="D277" s="3">
         <v>191140</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E277">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -6736,8 +7585,11 @@
       <c r="D278" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E278">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -6750,8 +7602,11 @@
       <c r="D279" s="3">
         <v>32232</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E279">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -6764,8 +7619,11 @@
       <c r="D280" s="3">
         <v>4810</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E280">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -6778,8 +7636,11 @@
       <c r="D281" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E281">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -6792,8 +7653,11 @@
       <c r="D282" s="3">
         <v>7464</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E282">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -6806,8 +7670,11 @@
       <c r="D283" s="3">
         <v>333980</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E283">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -6820,8 +7687,11 @@
       <c r="D284" s="3">
         <v>30257</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E284">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -6834,8 +7704,11 @@
       <c r="D285" s="3">
         <v>1592</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E285">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -6848,8 +7721,11 @@
       <c r="D286" s="3">
         <v>3285</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E286">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -6862,8 +7738,11 @@
       <c r="D287" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E287">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -6876,8 +7755,11 @@
       <c r="D288" s="3">
         <v>3618</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E288">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -6890,8 +7772,11 @@
       <c r="D289" s="3">
         <v>7083</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E289">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -6904,8 +7789,11 @@
       <c r="D290" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E290">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -6918,8 +7806,11 @@
       <c r="D291" s="3">
         <v>302</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E291">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -6932,8 +7823,11 @@
       <c r="D292" s="3">
         <v>9889</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E292">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -6946,8 +7840,11 @@
       <c r="D293" s="3">
         <v>216</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E293">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -6960,8 +7857,11 @@
       <c r="D294" s="3">
         <v>4914</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E294">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -6974,8 +7874,11 @@
       <c r="D295" s="3">
         <v>1241</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E295">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -6988,8 +7891,11 @@
       <c r="D296" s="3">
         <v>186</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E296">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -7002,8 +7908,11 @@
       <c r="D297" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E297">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -7016,8 +7925,11 @@
       <c r="D298" s="3">
         <v>66741</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E298">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -7030,8 +7942,11 @@
       <c r="D299" s="3">
         <v>588</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E299">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -7044,8 +7959,11 @@
       <c r="D300" s="3">
         <v>753</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E300">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -7058,8 +7976,11 @@
       <c r="D301" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E301">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>300</v>
       </c>
@@ -7072,8 +7993,11 @@
       <c r="D302" s="3">
         <v>322333</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E302">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>301</v>
       </c>
@@ -7086,8 +8010,11 @@
       <c r="D303" s="3">
         <v>1526</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E303">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -7100,8 +8027,11 @@
       <c r="D304" s="3">
         <v>13152</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E304">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>303</v>
       </c>
@@ -7114,8 +8044,11 @@
       <c r="D305" s="3">
         <v>1094</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E305">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>304</v>
       </c>
@@ -7128,8 +8061,11 @@
       <c r="D306" s="3">
         <v>8150</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E306">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -7142,8 +8078,11 @@
       <c r="D307" s="3">
         <v>12642</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E307">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>306</v>
       </c>
@@ -7156,8 +8095,11 @@
       <c r="D308" s="3">
         <v>2551</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E308">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -7170,8 +8112,11 @@
       <c r="D309" s="3">
         <v>486843</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E309">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>308</v>
       </c>
@@ -7184,8 +8129,11 @@
       <c r="D310" s="3">
         <v>372</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E310">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>309</v>
       </c>
@@ -7198,8 +8146,11 @@
       <c r="D311" s="3">
         <v>16851</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E311">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -7212,8 +8163,11 @@
       <c r="D312" s="3">
         <v>1615272</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E312">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>311</v>
       </c>
@@ -7226,8 +8180,11 @@
       <c r="D313" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E313">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>312</v>
       </c>
@@ -7240,8 +8197,11 @@
       <c r="D314" s="3">
         <v>436</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E314">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>313</v>
       </c>
@@ -7254,8 +8214,11 @@
       <c r="D315" s="3">
         <v>7122</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E315">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -7268,8 +8231,11 @@
       <c r="D316" s="3">
         <v>288</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E316">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>315</v>
       </c>
@@ -7282,8 +8248,11 @@
       <c r="D317" s="3">
         <v>10186</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E317">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -7296,8 +8265,11 @@
       <c r="D318" s="3">
         <v>253</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E318">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -7310,8 +8282,11 @@
       <c r="D319" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E319">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -7324,8 +8299,11 @@
       <c r="D320" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E320">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>319</v>
       </c>
@@ -7338,8 +8316,11 @@
       <c r="D321" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E321">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>320</v>
       </c>
@@ -7352,8 +8333,11 @@
       <c r="D322" s="3">
         <v>3756</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E322">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>321</v>
       </c>
@@ -7366,8 +8350,11 @@
       <c r="D323" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E323">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>322</v>
       </c>
@@ -7380,8 +8367,11 @@
       <c r="D324" s="3">
         <v>97116</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E324">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>323</v>
       </c>
@@ -7394,8 +8384,11 @@
       <c r="D325" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E325">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>324</v>
       </c>
@@ -7408,8 +8401,11 @@
       <c r="D326" s="3">
         <v>57746</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E326">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>325</v>
       </c>
@@ -7422,8 +8418,11 @@
       <c r="D327" s="3">
         <v>474410</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E327">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -7436,8 +8435,11 @@
       <c r="D328" s="3">
         <v>45043</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E328">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>327</v>
       </c>
@@ -7450,8 +8452,11 @@
       <c r="D329" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E329">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>328</v>
       </c>
@@ -7464,8 +8469,11 @@
       <c r="D330" s="3">
         <v>16704</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E330">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>329</v>
       </c>
@@ -7478,8 +8486,11 @@
       <c r="D331" s="3">
         <v>207</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E331">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>330</v>
       </c>
@@ -7492,8 +8503,11 @@
       <c r="D332" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E332">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -7506,8 +8520,11 @@
       <c r="D333" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E333">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>332</v>
       </c>
@@ -7520,8 +8537,11 @@
       <c r="D334" s="3">
         <v>41946</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E334">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>333</v>
       </c>
@@ -7534,8 +8554,11 @@
       <c r="D335" s="3">
         <v>1362</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E335">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>334</v>
       </c>
@@ -7548,8 +8571,11 @@
       <c r="D336" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E336">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>335</v>
       </c>
@@ -7562,8 +8588,11 @@
       <c r="D337" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E337">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -7576,8 +8605,11 @@
       <c r="D338" s="3">
         <v>1058</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E338">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -7590,8 +8622,11 @@
       <c r="D339" s="3">
         <v>4830</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E339">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -7604,8 +8639,11 @@
       <c r="D340" s="3">
         <v>45426</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E340">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -7618,8 +8656,11 @@
       <c r="D341" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E341">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -7632,8 +8673,11 @@
       <c r="D342" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E342">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -7646,8 +8690,11 @@
       <c r="D343" s="3">
         <v>53214</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E343">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>342</v>
       </c>
@@ -7660,8 +8707,11 @@
       <c r="D344" s="3">
         <v>251</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E344">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -7674,8 +8724,11 @@
       <c r="D345" s="3">
         <v>323979</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E345">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -7688,8 +8741,11 @@
       <c r="D346" s="3">
         <v>1590</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E346">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -7702,8 +8758,11 @@
       <c r="D347" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E347">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -7716,8 +8775,11 @@
       <c r="D348" s="3">
         <v>1644</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E348">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>347</v>
       </c>
@@ -7730,8 +8792,11 @@
       <c r="D349" s="3">
         <v>118</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E349">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -7744,8 +8809,11 @@
       <c r="D350" s="3">
         <v>95027</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E350">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -7758,8 +8826,11 @@
       <c r="D351" s="3">
         <v>1704</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E351">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>350</v>
       </c>
@@ -7772,8 +8843,11 @@
       <c r="D352" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E352">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>351</v>
       </c>
@@ -7786,8 +8860,11 @@
       <c r="D353" s="3">
         <v>13418</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E353">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>352</v>
       </c>
@@ -7800,8 +8877,11 @@
       <c r="D354" s="3">
         <v>534</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E354">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>353</v>
       </c>
@@ -7814,8 +8894,11 @@
       <c r="D355" s="3">
         <v>5622</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E355">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>354</v>
       </c>
@@ -7828,8 +8911,11 @@
       <c r="D356" s="3">
         <v>204271</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E356">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>355</v>
       </c>
@@ -7842,8 +8928,11 @@
       <c r="D357" s="3">
         <v>480</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E357">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>356</v>
       </c>
@@ -7856,8 +8945,11 @@
       <c r="D358" s="3">
         <v>746</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E358">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>357</v>
       </c>
@@ -7870,8 +8962,11 @@
       <c r="D359" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E359">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>358</v>
       </c>
@@ -7884,8 +8979,11 @@
       <c r="D360" s="3">
         <v>198</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E360">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>359</v>
       </c>
@@ -7898,8 +8996,11 @@
       <c r="D361" s="3">
         <v>144</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E361">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>360</v>
       </c>
@@ -7912,8 +9013,11 @@
       <c r="D362" s="3">
         <v>228</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E362">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>361</v>
       </c>
@@ -7926,8 +9030,11 @@
       <c r="D363" s="3">
         <v>37524</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E363">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>362</v>
       </c>
@@ -7940,8 +9047,11 @@
       <c r="D364" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E364">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>363</v>
       </c>
@@ -7954,8 +9064,11 @@
       <c r="D365" s="3">
         <v>8478</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E365">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>364</v>
       </c>
@@ -7968,8 +9081,11 @@
       <c r="D366" s="3">
         <v>530</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E366">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>365</v>
       </c>
@@ -7982,8 +9098,11 @@
       <c r="D367" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E367">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>366</v>
       </c>
@@ -7996,8 +9115,11 @@
       <c r="D368" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E368">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>367</v>
       </c>
@@ -8010,8 +9132,11 @@
       <c r="D369" s="3">
         <v>8784</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E369">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>368</v>
       </c>
@@ -8024,8 +9149,11 @@
       <c r="D370" s="3">
         <v>402</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E370">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>369</v>
       </c>
@@ -8038,8 +9166,11 @@
       <c r="D371" s="3">
         <v>31126</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E371">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>370</v>
       </c>
@@ -8052,8 +9183,11 @@
       <c r="D372" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E372">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>371</v>
       </c>
@@ -8066,8 +9200,11 @@
       <c r="D373" s="3">
         <v>1720</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E373">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>372</v>
       </c>
@@ -8080,8 +9217,11 @@
       <c r="D374" s="3">
         <v>307</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E374">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>373</v>
       </c>
@@ -8094,8 +9234,11 @@
       <c r="D375" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E375">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>374</v>
       </c>
@@ -8108,8 +9251,11 @@
       <c r="D376" s="3">
         <v>114111</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E376">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>375</v>
       </c>
@@ -8122,8 +9268,11 @@
       <c r="D377" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E377">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>376</v>
       </c>
@@ -8136,8 +9285,11 @@
       <c r="D378" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E378">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>377</v>
       </c>
@@ -8150,8 +9302,11 @@
       <c r="D379" s="3">
         <v>3702</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E379">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>378</v>
       </c>
@@ -8164,8 +9319,11 @@
       <c r="D380" s="3">
         <v>3267</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E380">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>379</v>
       </c>
@@ -8178,8 +9336,11 @@
       <c r="D381" s="3">
         <v>330</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E381">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>380</v>
       </c>
@@ -8192,8 +9353,11 @@
       <c r="D382" s="3">
         <v>422</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E382">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>381</v>
       </c>
@@ -8206,8 +9370,11 @@
       <c r="D383" s="3">
         <v>936</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E383">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>382</v>
       </c>
@@ -8220,8 +9387,11 @@
       <c r="D384" s="3">
         <v>3168</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E384">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>383</v>
       </c>
@@ -8234,8 +9404,11 @@
       <c r="D385" s="3">
         <v>3024</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E385">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>384</v>
       </c>
@@ -8248,8 +9421,11 @@
       <c r="D386" s="3">
         <v>162990</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E386">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>385</v>
       </c>
@@ -8262,8 +9438,11 @@
       <c r="D387" s="3">
         <v>311894</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E387">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>386</v>
       </c>
@@ -8276,8 +9455,11 @@
       <c r="D388" s="3">
         <v>1112</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E388">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>387</v>
       </c>
@@ -8290,8 +9472,11 @@
       <c r="D389" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E389">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -8304,8 +9489,11 @@
       <c r="D390" s="3">
         <v>1684</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E390">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>389</v>
       </c>
@@ -8318,8 +9506,11 @@
       <c r="D391" s="3">
         <v>2508</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E391">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>390</v>
       </c>
@@ -8332,8 +9523,11 @@
       <c r="D392" s="3">
         <v>318</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E392">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>391</v>
       </c>
@@ -8346,8 +9540,11 @@
       <c r="D393" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E393">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -8360,8 +9557,11 @@
       <c r="D394" s="3">
         <v>110</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E394">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>393</v>
       </c>
@@ -8374,8 +9574,11 @@
       <c r="D395" s="3">
         <v>888</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E395">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>394</v>
       </c>
@@ -8388,8 +9591,11 @@
       <c r="D396" s="3">
         <v>268</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E396">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>395</v>
       </c>
@@ -8402,8 +9608,11 @@
       <c r="D397" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E397">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>396</v>
       </c>
@@ -8416,8 +9625,11 @@
       <c r="D398" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E398">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>397</v>
       </c>
@@ -8430,8 +9642,11 @@
       <c r="D399" s="3">
         <v>3052</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E399">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>398</v>
       </c>
@@ -8444,8 +9659,11 @@
       <c r="D400" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E400">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -8458,8 +9676,11 @@
       <c r="D401" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E401">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>400</v>
       </c>
@@ -8472,8 +9693,11 @@
       <c r="D402" s="3">
         <v>254</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E402">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>401</v>
       </c>
@@ -8486,8 +9710,11 @@
       <c r="D403" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E403">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>402</v>
       </c>
@@ -8500,8 +9727,11 @@
       <c r="D404" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E404">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>403</v>
       </c>
@@ -8514,8 +9744,11 @@
       <c r="D405" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E405">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>404</v>
       </c>
@@ -8528,8 +9761,11 @@
       <c r="D406" s="3">
         <v>1658</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E406">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>405</v>
       </c>
@@ -8542,8 +9778,11 @@
       <c r="D407" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E407">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>406</v>
       </c>
@@ -8556,8 +9795,11 @@
       <c r="D408" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E408">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>407</v>
       </c>
@@ -8570,8 +9812,11 @@
       <c r="D409" s="3">
         <v>56048</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E409">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>408</v>
       </c>
@@ -8584,8 +9829,11 @@
       <c r="D410" s="3">
         <v>1112</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E410">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -8598,8 +9846,11 @@
       <c r="D411" s="3">
         <v>268</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E411">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>410</v>
       </c>
@@ -8612,8 +9863,11 @@
       <c r="D412" s="3">
         <v>4778</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E412">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>411</v>
       </c>
@@ -8626,8 +9880,11 @@
       <c r="D413" s="3">
         <v>588</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E413">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -8640,8 +9897,11 @@
       <c r="D414" s="3">
         <v>14874</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E414">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>413</v>
       </c>
@@ -8654,8 +9914,11 @@
       <c r="D415" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E415">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -8668,8 +9931,11 @@
       <c r="D416" s="3">
         <v>728</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E416">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -8682,8 +9948,11 @@
       <c r="D417" s="3">
         <v>1124</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E417">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -8696,8 +9965,11 @@
       <c r="D418" s="3">
         <v>138</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E418">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -8710,8 +9982,11 @@
       <c r="D419" s="3">
         <v>5454</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E419">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -8724,8 +9999,11 @@
       <c r="D420" s="3">
         <v>2052065</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E420">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -8738,8 +10016,11 @@
       <c r="D421" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E421">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -8752,8 +10033,11 @@
       <c r="D422" s="3">
         <v>16512</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E422">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -8766,8 +10050,11 @@
       <c r="D423" s="3">
         <v>5254692</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E423">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -8780,8 +10067,11 @@
       <c r="D424" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E424">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -8794,8 +10084,11 @@
       <c r="D425" s="3">
         <v>750</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E425">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -8808,8 +10101,11 @@
       <c r="D426" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E426">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>425</v>
       </c>
@@ -8822,8 +10118,11 @@
       <c r="D427" s="3">
         <v>360</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E427">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>426</v>
       </c>
@@ -8836,8 +10135,11 @@
       <c r="D428" s="3">
         <v>1397</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E428">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>427</v>
       </c>
@@ -8850,8 +10152,11 @@
       <c r="D429" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E429">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>428</v>
       </c>
@@ -8864,8 +10169,11 @@
       <c r="D430" s="3">
         <v>22218</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E430">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>429</v>
       </c>
@@ -8878,8 +10186,11 @@
       <c r="D431" s="3">
         <v>1917</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E431">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>430</v>
       </c>
@@ -8892,8 +10203,11 @@
       <c r="D432" s="3">
         <v>169</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E432">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>431</v>
       </c>
@@ -8906,8 +10220,11 @@
       <c r="D433" s="3">
         <v>640</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E433">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>432</v>
       </c>
@@ -8920,8 +10237,11 @@
       <c r="D434" s="3">
         <v>252</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E434">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>433</v>
       </c>
@@ -8934,8 +10254,11 @@
       <c r="D435" s="3">
         <v>5787</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E435">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>434</v>
       </c>
@@ -8948,8 +10271,11 @@
       <c r="D436" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E436">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>435</v>
       </c>
@@ -8962,8 +10288,11 @@
       <c r="D437" s="3">
         <v>382</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E437">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>436</v>
       </c>
@@ -8976,8 +10305,11 @@
       <c r="D438" s="3">
         <v>620</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E438">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>437</v>
       </c>
@@ -8990,8 +10322,11 @@
       <c r="D439" s="3">
         <v>19626</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E439">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>438</v>
       </c>
@@ -9004,8 +10339,11 @@
       <c r="D440" s="3">
         <v>61272</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E440">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>439</v>
       </c>
@@ -9018,8 +10356,11 @@
       <c r="D441" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E441">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>440</v>
       </c>
@@ -9032,8 +10373,11 @@
       <c r="D442" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E442">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>441</v>
       </c>
@@ -9046,8 +10390,11 @@
       <c r="D443" s="3">
         <v>50560</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E443">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>442</v>
       </c>
@@ -9060,8 +10407,11 @@
       <c r="D444" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E444">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>443</v>
       </c>
@@ -9074,8 +10424,11 @@
       <c r="D445" s="3">
         <v>1522</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E445">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>444</v>
       </c>
@@ -9088,8 +10441,11 @@
       <c r="D446" s="3">
         <v>1089</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E446">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>445</v>
       </c>
@@ -9102,8 +10458,11 @@
       <c r="D447" s="3">
         <v>6243</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E447">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>446</v>
       </c>
@@ -9116,8 +10475,11 @@
       <c r="D448" s="3">
         <v>20186</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E448">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>447</v>
       </c>
@@ -9130,8 +10492,11 @@
       <c r="D449" s="3">
         <v>535</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E449">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>448</v>
       </c>
@@ -9144,8 +10509,11 @@
       <c r="D450" s="3">
         <v>20046</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E450">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>449</v>
       </c>
@@ -9158,8 +10526,11 @@
       <c r="D451" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E451">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>450</v>
       </c>
@@ -9172,8 +10543,11 @@
       <c r="D452" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E452">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>451</v>
       </c>
@@ -9186,8 +10560,11 @@
       <c r="D453" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E453">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>452</v>
       </c>
@@ -9200,8 +10577,11 @@
       <c r="D454" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E454">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>453</v>
       </c>
@@ -9214,8 +10594,11 @@
       <c r="D455" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E455">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>454</v>
       </c>
@@ -9228,8 +10611,11 @@
       <c r="D456" s="3">
         <v>252</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E456">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>455</v>
       </c>
@@ -9242,8 +10628,11 @@
       <c r="D457" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E457">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>456</v>
       </c>
@@ -9256,8 +10645,11 @@
       <c r="D458" s="3">
         <v>12436</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E458">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>457</v>
       </c>
@@ -9270,8 +10662,11 @@
       <c r="D459" s="3">
         <v>1136</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E459">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>458</v>
       </c>
@@ -9284,8 +10679,11 @@
       <c r="D460" s="3">
         <v>326</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E460">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>459</v>
       </c>
@@ -9298,8 +10696,11 @@
       <c r="D461" s="3">
         <v>1746</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E461">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>460</v>
       </c>
@@ -9312,8 +10713,11 @@
       <c r="D462" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E462">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>461</v>
       </c>
@@ -9326,8 +10730,11 @@
       <c r="D463" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E463">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>462</v>
       </c>
@@ -9340,8 +10747,11 @@
       <c r="D464" s="3">
         <v>5214</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E464">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>463</v>
       </c>
@@ -9354,8 +10764,11 @@
       <c r="D465" s="3">
         <v>325</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E465">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>464</v>
       </c>
@@ -9368,8 +10781,11 @@
       <c r="D466" s="3">
         <v>10714</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E466">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>465</v>
       </c>
@@ -9382,8 +10798,11 @@
       <c r="D467" s="3">
         <v>3408</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E467">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>466</v>
       </c>
@@ -9396,8 +10815,11 @@
       <c r="D468" s="3">
         <v>7724</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E468">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>467</v>
       </c>
@@ -9410,8 +10832,11 @@
       <c r="D469" s="3">
         <v>417</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E469">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>468</v>
       </c>
@@ -9424,8 +10849,11 @@
       <c r="D470" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E470">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>469</v>
       </c>
@@ -9438,8 +10866,11 @@
       <c r="D471" s="3">
         <v>15834</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E471">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>470</v>
       </c>
@@ -9452,8 +10883,11 @@
       <c r="D472" s="3">
         <v>1080</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E472">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>471</v>
       </c>
@@ -9466,8 +10900,11 @@
       <c r="D473" s="3">
         <v>1236</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E473">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>472</v>
       </c>
@@ -9480,8 +10917,11 @@
       <c r="D474" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E474">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>473</v>
       </c>
@@ -9494,8 +10934,11 @@
       <c r="D475" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E475">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>474</v>
       </c>
@@ -9508,8 +10951,11 @@
       <c r="D476" s="3">
         <v>264</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E476">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>475</v>
       </c>
@@ -9522,8 +10968,11 @@
       <c r="D477" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E477">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>476</v>
       </c>
@@ -9536,8 +10985,11 @@
       <c r="D478" s="3">
         <v>3266</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E478">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>477</v>
       </c>
@@ -9550,8 +11002,11 @@
       <c r="D479" s="3">
         <v>340</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E479">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>478</v>
       </c>
@@ -9564,8 +11019,11 @@
       <c r="D480" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E480">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>479</v>
       </c>
@@ -9578,8 +11036,11 @@
       <c r="D481" s="3">
         <v>216</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E481">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>480</v>
       </c>
@@ -9592,8 +11053,11 @@
       <c r="D482" s="3">
         <v>192</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E482">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>481</v>
       </c>
@@ -9606,8 +11070,11 @@
       <c r="D483" s="3">
         <v>2666</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E483">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>482</v>
       </c>
@@ -9620,8 +11087,11 @@
       <c r="D484" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E484">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>483</v>
       </c>
@@ -9634,8 +11104,11 @@
       <c r="D485" s="3">
         <v>2381</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E485">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>484</v>
       </c>
@@ -9648,8 +11121,11 @@
       <c r="D486" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E486">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>485</v>
       </c>
@@ -9662,8 +11138,11 @@
       <c r="D487" s="3">
         <v>40010</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E487">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>486</v>
       </c>
@@ -9676,8 +11155,11 @@
       <c r="D488" s="3">
         <v>1644</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E488">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>487</v>
       </c>
@@ -9690,8 +11172,11 @@
       <c r="D489" s="3">
         <v>25388</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E489">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>488</v>
       </c>
@@ -9704,8 +11189,11 @@
       <c r="D490" s="3">
         <v>560</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E490">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>489</v>
       </c>
@@ -9718,8 +11206,11 @@
       <c r="D491" s="3">
         <v>9798</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E491">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>490</v>
       </c>
@@ -9732,8 +11223,11 @@
       <c r="D492" s="3">
         <v>17070</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E492">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>491</v>
       </c>
@@ -9746,8 +11240,11 @@
       <c r="D493" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E493">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>492</v>
       </c>
@@ -9760,8 +11257,11 @@
       <c r="D494" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E494">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>493</v>
       </c>
@@ -9774,8 +11274,11 @@
       <c r="D495" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E495">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>494</v>
       </c>
@@ -9788,8 +11291,11 @@
       <c r="D496" s="3">
         <v>14089</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E496">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>495</v>
       </c>
@@ -9802,8 +11308,11 @@
       <c r="D497" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E497">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>496</v>
       </c>
@@ -9816,8 +11325,11 @@
       <c r="D498" s="3">
         <v>2280</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E498">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>497</v>
       </c>
@@ -9830,8 +11342,11 @@
       <c r="D499" s="3">
         <v>1008</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E499">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>498</v>
       </c>
@@ -9844,8 +11359,11 @@
       <c r="D500" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E500">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>499</v>
       </c>
@@ -9858,8 +11376,11 @@
       <c r="D501" s="3">
         <v>1080</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E501">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>500</v>
       </c>
@@ -9872,8 +11393,11 @@
       <c r="D502" s="3">
         <v>183386</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E502">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>501</v>
       </c>
@@ -9886,8 +11410,11 @@
       <c r="D503" s="3">
         <v>7084</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E503">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>502</v>
       </c>
@@ -9900,8 +11427,11 @@
       <c r="D504" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E504">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>503</v>
       </c>
@@ -9914,8 +11444,11 @@
       <c r="D505" s="3">
         <v>384212</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E505">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>504</v>
       </c>
@@ -9928,8 +11461,11 @@
       <c r="D506" s="3">
         <v>328</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E506">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>505</v>
       </c>
@@ -9942,8 +11478,11 @@
       <c r="D507" s="3">
         <v>85628</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E507">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>506</v>
       </c>
@@ -9956,8 +11495,11 @@
       <c r="D508" s="3">
         <v>486</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E508">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>507</v>
       </c>
@@ -9970,8 +11512,11 @@
       <c r="D509" s="3">
         <v>56881</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E509">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>508</v>
       </c>
@@ -9984,8 +11529,11 @@
       <c r="D510" s="3">
         <v>20726</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E510">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>509</v>
       </c>
@@ -9998,8 +11546,11 @@
       <c r="D511" s="3">
         <v>2319</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E511">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>510</v>
       </c>
@@ -10012,8 +11563,11 @@
       <c r="D512" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E512">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>511</v>
       </c>
@@ -10026,8 +11580,11 @@
       <c r="D513" s="3">
         <v>1582</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E513">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>512</v>
       </c>
@@ -10040,8 +11597,11 @@
       <c r="D514" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E514">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>513</v>
       </c>
@@ -10054,8 +11614,11 @@
       <c r="D515" s="3">
         <v>1298</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E515">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>514</v>
       </c>
@@ -10068,8 +11631,11 @@
       <c r="D516" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E516">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>515</v>
       </c>
@@ -10082,8 +11648,11 @@
       <c r="D517" s="3">
         <v>336</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E517">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>516</v>
       </c>
@@ -10096,8 +11665,11 @@
       <c r="D518" s="3">
         <v>352</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E518">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>517</v>
       </c>
@@ -10110,8 +11682,11 @@
       <c r="D519" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E519">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>518</v>
       </c>
@@ -10124,8 +11699,11 @@
       <c r="D520" s="3">
         <v>29816</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E520">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>519</v>
       </c>
@@ -10138,8 +11716,11 @@
       <c r="D521" s="3">
         <v>15504</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E521">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>520</v>
       </c>
@@ -10152,8 +11733,11 @@
       <c r="D522" s="3">
         <v>810</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E522">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>521</v>
       </c>
@@ -10166,8 +11750,11 @@
       <c r="D523" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E523">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>522</v>
       </c>
@@ -10180,8 +11767,11 @@
       <c r="D524" s="3">
         <v>450466</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E524">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>523</v>
       </c>
@@ -10194,8 +11784,11 @@
       <c r="D525" s="3">
         <v>558</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E525">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>524</v>
       </c>
@@ -10208,8 +11801,11 @@
       <c r="D526" s="3">
         <v>1011</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E526">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>525</v>
       </c>
@@ -10222,8 +11818,11 @@
       <c r="D527" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E527">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>526</v>
       </c>
@@ -10236,8 +11835,11 @@
       <c r="D528" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E528">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>527</v>
       </c>
@@ -10250,8 +11852,11 @@
       <c r="D529" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E529">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>528</v>
       </c>
@@ -10264,8 +11869,11 @@
       <c r="D530" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E530">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>529</v>
       </c>
@@ -10278,8 +11886,11 @@
       <c r="D531" s="3">
         <v>12862</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E531">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>530</v>
       </c>
@@ -10292,8 +11903,11 @@
       <c r="D532" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E532">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>531</v>
       </c>
@@ -10306,8 +11920,11 @@
       <c r="D533" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E533">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>532</v>
       </c>
@@ -10320,8 +11937,11 @@
       <c r="D534" s="3">
         <v>896</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E534">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>533</v>
       </c>
@@ -10334,8 +11954,11 @@
       <c r="D535" s="3">
         <v>1776</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E535">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>534</v>
       </c>
@@ -10348,8 +11971,11 @@
       <c r="D536" s="3">
         <v>157942</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E536">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>535</v>
       </c>
@@ -10362,8 +11988,11 @@
       <c r="D537" s="3">
         <v>1018</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E537">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>536</v>
       </c>
@@ -10376,8 +12005,11 @@
       <c r="D538" s="3">
         <v>1290</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E538">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>537</v>
       </c>
@@ -10390,8 +12022,11 @@
       <c r="D539" s="3">
         <v>552</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E539">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>538</v>
       </c>
@@ -10404,8 +12039,11 @@
       <c r="D540" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E540">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>539</v>
       </c>
@@ -10418,8 +12056,11 @@
       <c r="D541" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E541">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>540</v>
       </c>
@@ -10432,8 +12073,11 @@
       <c r="D542" s="3">
         <v>1578</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E542">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>541</v>
       </c>
@@ -10446,8 +12090,11 @@
       <c r="D543" s="3">
         <v>685</v>
       </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E543">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>542</v>
       </c>
@@ -10460,8 +12107,11 @@
       <c r="D544" s="3">
         <v>1544</v>
       </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E544">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>543</v>
       </c>
@@ -10474,8 +12124,11 @@
       <c r="D545" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E545">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>544</v>
       </c>
@@ -10488,8 +12141,11 @@
       <c r="D546" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E546">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>545</v>
       </c>
@@ -10502,8 +12158,11 @@
       <c r="D547" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E547">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>546</v>
       </c>
@@ -10516,8 +12175,11 @@
       <c r="D548" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E548">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>547</v>
       </c>
@@ -10530,8 +12192,11 @@
       <c r="D549" s="3">
         <v>9530</v>
       </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E549">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>548</v>
       </c>
@@ -10544,8 +12209,11 @@
       <c r="D550" s="3">
         <v>418976</v>
       </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E550">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>549</v>
       </c>
@@ -10558,8 +12226,11 @@
       <c r="D551" s="3">
         <v>5616</v>
       </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E551">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>550</v>
       </c>
@@ -10572,8 +12243,11 @@
       <c r="D552" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E552">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>551</v>
       </c>
@@ -10586,8 +12260,11 @@
       <c r="D553" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E553">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>552</v>
       </c>
@@ -10600,8 +12277,11 @@
       <c r="D554" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E554">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>553</v>
       </c>
@@ -10614,8 +12294,11 @@
       <c r="D555" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E555">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>554</v>
       </c>
@@ -10628,8 +12311,11 @@
       <c r="D556" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E556">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>555</v>
       </c>
@@ -10642,8 +12328,11 @@
       <c r="D557" s="3">
         <v>384</v>
       </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E557">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>556</v>
       </c>
@@ -10656,8 +12345,11 @@
       <c r="D558" s="3">
         <v>328</v>
       </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E558">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>557</v>
       </c>
@@ -10670,8 +12362,11 @@
       <c r="D559" s="3">
         <v>434</v>
       </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E559">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>558</v>
       </c>
@@ -10684,8 +12379,11 @@
       <c r="D560" s="3">
         <v>61345</v>
       </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E560">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>559</v>
       </c>
@@ -10698,8 +12396,11 @@
       <c r="D561" s="3">
         <v>252</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E561">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>560</v>
       </c>
@@ -10712,8 +12413,11 @@
       <c r="D562" s="3">
         <v>296</v>
       </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E562">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>561</v>
       </c>
@@ -10726,8 +12430,11 @@
       <c r="D563" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E563">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>562</v>
       </c>
@@ -10740,8 +12447,11 @@
       <c r="D564" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E564">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>563</v>
       </c>
@@ -10754,8 +12464,11 @@
       <c r="D565" s="3">
         <v>54580</v>
       </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E565">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>564</v>
       </c>
@@ -10768,8 +12481,11 @@
       <c r="D566" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E566">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>565</v>
       </c>
@@ -10782,8 +12498,11 @@
       <c r="D567" s="3">
         <v>804</v>
       </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E567">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>566</v>
       </c>
@@ -10796,8 +12515,11 @@
       <c r="D568" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E568">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>567</v>
       </c>
@@ -10810,8 +12532,11 @@
       <c r="D569" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E569">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>568</v>
       </c>
@@ -10824,8 +12549,11 @@
       <c r="D570" s="3">
         <v>1815688</v>
       </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E570">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>569</v>
       </c>
@@ -10838,8 +12566,11 @@
       <c r="D571" s="3">
         <v>250</v>
       </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E571">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>570</v>
       </c>
@@ -10852,8 +12583,11 @@
       <c r="D572" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E572">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>571</v>
       </c>
@@ -10866,8 +12600,11 @@
       <c r="D573" s="3">
         <v>10494</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E573">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>572</v>
       </c>
@@ -10880,8 +12617,11 @@
       <c r="D574" s="3">
         <v>2298874</v>
       </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E574">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>573</v>
       </c>
@@ -10894,8 +12634,11 @@
       <c r="D575" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E575">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>574</v>
       </c>
@@ -10908,8 +12651,11 @@
       <c r="D576" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E576">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>575</v>
       </c>
@@ -10922,8 +12668,11 @@
       <c r="D577" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E577">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>576</v>
       </c>
@@ -10936,8 +12685,11 @@
       <c r="D578" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E578">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>577</v>
       </c>
@@ -10950,8 +12702,11 @@
       <c r="D579" s="3">
         <v>4310</v>
       </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E579">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>578</v>
       </c>
@@ -10964,8 +12719,11 @@
       <c r="D580" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E580">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>579</v>
       </c>
@@ -10978,8 +12736,11 @@
       <c r="D581" s="3">
         <v>868</v>
       </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E581">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>580</v>
       </c>
@@ -10992,8 +12753,11 @@
       <c r="D582" s="3">
         <v>1347</v>
       </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E582">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>581</v>
       </c>
@@ -11006,8 +12770,11 @@
       <c r="D583" s="3">
         <v>18547</v>
       </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E583">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>582</v>
       </c>
@@ -11020,8 +12787,11 @@
       <c r="D584" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E584">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>583</v>
       </c>
@@ -11034,8 +12804,11 @@
       <c r="D585" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E585">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>584</v>
       </c>
@@ -11048,8 +12821,11 @@
       <c r="D586" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E586">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>585</v>
       </c>
@@ -11062,8 +12838,11 @@
       <c r="D587" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E587">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>586</v>
       </c>
@@ -11076,8 +12855,11 @@
       <c r="D588" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E588">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>587</v>
       </c>
@@ -11090,8 +12872,11 @@
       <c r="D589" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E589">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>588</v>
       </c>
@@ -11104,8 +12889,11 @@
       <c r="D590" s="3">
         <v>558</v>
       </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E590">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>589</v>
       </c>
@@ -11118,8 +12906,11 @@
       <c r="D591" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E591">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>590</v>
       </c>
@@ -11132,8 +12923,11 @@
       <c r="D592" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E592">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>591</v>
       </c>
@@ -11146,8 +12940,11 @@
       <c r="D593" s="3">
         <v>2749</v>
       </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E593">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>592</v>
       </c>
@@ -11160,8 +12957,11 @@
       <c r="D594" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E594">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>593</v>
       </c>
@@ -11174,8 +12974,11 @@
       <c r="D595" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E595">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>594</v>
       </c>
@@ -11188,8 +12991,11 @@
       <c r="D596" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E596">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>595</v>
       </c>
@@ -11202,8 +13008,11 @@
       <c r="D597" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E597">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>596</v>
       </c>
@@ -11216,8 +13025,11 @@
       <c r="D598" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E598">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>597</v>
       </c>
@@ -11230,8 +13042,11 @@
       <c r="D599" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E599">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>598</v>
       </c>
@@ -11244,8 +13059,11 @@
       <c r="D600" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E600">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>599</v>
       </c>
@@ -11258,8 +13076,11 @@
       <c r="D601" s="3">
         <v>708</v>
       </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E601">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>600</v>
       </c>
@@ -11272,8 +13093,11 @@
       <c r="D602" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E602">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>601</v>
       </c>
@@ -11286,8 +13110,11 @@
       <c r="D603" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E603">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>602</v>
       </c>
@@ -11300,8 +13127,11 @@
       <c r="D604" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E604">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>603</v>
       </c>
@@ -11314,8 +13144,11 @@
       <c r="D605" s="3">
         <v>984</v>
       </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E605">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>604</v>
       </c>
@@ -11328,8 +13161,11 @@
       <c r="D606" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E606">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>605</v>
       </c>
@@ -11342,8 +13178,11 @@
       <c r="D607" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E607">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>606</v>
       </c>
@@ -11356,8 +13195,11 @@
       <c r="D608" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E608">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>607</v>
       </c>
@@ -11370,8 +13212,11 @@
       <c r="D609" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E609">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>608</v>
       </c>
@@ -11384,8 +13229,11 @@
       <c r="D610" s="3">
         <v>3240</v>
       </c>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E610">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>609</v>
       </c>
@@ -11398,8 +13246,11 @@
       <c r="D611" s="3">
         <v>552</v>
       </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E611">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>610</v>
       </c>
@@ -11412,8 +13263,11 @@
       <c r="D612" s="3">
         <v>372</v>
       </c>
-    </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E612">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>611</v>
       </c>
@@ -11426,8 +13280,11 @@
       <c r="D613" s="3">
         <v>1302</v>
       </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E613">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>612</v>
       </c>
@@ -11440,8 +13297,11 @@
       <c r="D614" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E614">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>613</v>
       </c>
@@ -11454,8 +13314,11 @@
       <c r="D615" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E615">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>614</v>
       </c>
@@ -11468,8 +13331,11 @@
       <c r="D616" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E616">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>615</v>
       </c>
@@ -11482,8 +13348,11 @@
       <c r="D617" s="3">
         <v>210</v>
       </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E617">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>616</v>
       </c>
@@ -11496,8 +13365,11 @@
       <c r="D618" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E618">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>617</v>
       </c>
@@ -11510,8 +13382,11 @@
       <c r="D619" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E619">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>618</v>
       </c>
@@ -11524,8 +13399,11 @@
       <c r="D620" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E620">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>619</v>
       </c>
@@ -11538,8 +13416,11 @@
       <c r="D621" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E621">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>620</v>
       </c>
@@ -11552,8 +13433,11 @@
       <c r="D622" s="3">
         <v>456</v>
       </c>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E622">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>621</v>
       </c>
@@ -11566,8 +13450,11 @@
       <c r="D623" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E623">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>622</v>
       </c>
@@ -11580,8 +13467,11 @@
       <c r="D624" s="3">
         <v>198</v>
       </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E624">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>623</v>
       </c>
@@ -11594,8 +13484,11 @@
       <c r="D625" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E625">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>624</v>
       </c>
@@ -11608,8 +13501,11 @@
       <c r="D626" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E626">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>625</v>
       </c>
@@ -11622,8 +13518,11 @@
       <c r="D627" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E627">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>626</v>
       </c>
@@ -11636,8 +13535,11 @@
       <c r="D628" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E628">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>627</v>
       </c>
@@ -11650,8 +13552,11 @@
       <c r="D629" s="3">
         <v>69126</v>
       </c>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E629">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>628</v>
       </c>
@@ -11664,8 +13569,11 @@
       <c r="D630" s="3">
         <v>34359</v>
       </c>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E630">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>629</v>
       </c>
@@ -11678,8 +13586,11 @@
       <c r="D631" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E631">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>630</v>
       </c>
@@ -11692,8 +13603,11 @@
       <c r="D632" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E632">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>631</v>
       </c>
@@ -11706,8 +13620,11 @@
       <c r="D633" s="3">
         <v>204</v>
       </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E633">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>632</v>
       </c>
@@ -11720,8 +13637,11 @@
       <c r="D634" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E634">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>633</v>
       </c>
@@ -11734,8 +13654,11 @@
       <c r="D635" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E635">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>634</v>
       </c>
@@ -11748,8 +13671,11 @@
       <c r="D636" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E636">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>635</v>
       </c>
@@ -11762,8 +13688,11 @@
       <c r="D637" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E637">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>636</v>
       </c>
@@ -11776,8 +13705,11 @@
       <c r="D638" s="3">
         <v>324</v>
       </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E638">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>637</v>
       </c>
@@ -11790,8 +13722,11 @@
       <c r="D639" s="3">
         <v>315</v>
       </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E639">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>638</v>
       </c>
@@ -11803,6 +13738,9 @@
       </c>
       <c r="D640" s="3">
         <v>0</v>
+      </c>
+      <c r="E640">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
